--- a/design/chitiet/Header.xlsx
+++ b/design/chitiet/Header.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bia" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="93">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -291,7 +291,13 @@
     <t xml:space="preserve">1. Mục đích</t>
   </si>
   <si>
-    <t xml:space="preserve">- Dùng để xem tất cả sản phẩm cảu shop </t>
+    <t xml:space="preserve">- Dùng để xem tất cả sản phẩm trong giỏ hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Dùng để vào trang quản lý </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Dùng để đăng nhập </t>
   </si>
   <si>
     <t xml:space="preserve">2. Giới hạn hoạt động</t>
@@ -336,16 +342,16 @@
     <t xml:space="preserve">User </t>
   </si>
   <si>
-    <t xml:space="preserve">Table quản lý User  </t>
+    <t xml:space="preserve">Table User  </t>
   </si>
   <si>
     <t xml:space="preserve">O</t>
   </si>
   <si>
-    <t xml:space="preserve">Cart</t>
+    <t xml:space="preserve">Cart_items</t>
   </si>
   <si>
-    <t xml:space="preserve">Table quản lý Cart  </t>
+    <t xml:space="preserve">Table giỏ hàng   </t>
   </si>
   <si>
     <r>
@@ -470,7 +476,7 @@
     <t xml:space="preserve">(3) Xử lý account</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Nhấn vào account thì chuyển trang account </t>
+    <t xml:space="preserve">1. Nhấn vào account thì chuyển trang tài khoản cá nhân  </t>
   </si>
   <si>
     <t xml:space="preserve">10. Xử lý chi tiết</t>
@@ -598,10 +604,10 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1806,9 +1812,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
+      <xdr:colOff>35640</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1822,7 +1828,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="675720" cy="969840"/>
+          <a:ext cx="675000" cy="969120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1836,16 +1842,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>37800</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>61560</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1854,8 +1860,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3324960" y="24307560"/>
-          <a:ext cx="954720" cy="645840"/>
+          <a:off x="3386880" y="24323040"/>
+          <a:ext cx="954000" cy="645120"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -1908,15 +1914,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>70560</xdr:colOff>
+      <xdr:colOff>70200</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
+      <xdr:colOff>72360</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1925,8 +1931,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3791520" y="23726160"/>
-          <a:ext cx="2880" cy="578880"/>
+          <a:off x="3791160" y="23725800"/>
+          <a:ext cx="2160" cy="578160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1971,9 +1977,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
+      <xdr:colOff>121320</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1983,7 +1989,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2779560" cy="2608200"/>
+          <a:ext cx="2778840" cy="2607480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2015,9 +2021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>73800</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2027,7 +2033,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1188360" cy="426960"/>
+          <a:ext cx="1187640" cy="426240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2053,22 +2059,22 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr">
+          <a:pPr>
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1050" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Arial"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="Noto Sans CJK SC"/>
             </a:rPr>
-            <a:t>Màn hình Login</a:t>
+            <a:t>Màn hình Header</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1050" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2085,9 +2091,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>64800</xdr:colOff>
+      <xdr:colOff>64080</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2097,7 +2103,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="995040" cy="398160"/>
+          <a:ext cx="994320" cy="397440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2259,9 +2265,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>178920</xdr:colOff>
+      <xdr:colOff>178200</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2271,7 +2277,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="913680" cy="398520"/>
+          <a:ext cx="912960" cy="397800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2327,9 +2333,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>83880</xdr:colOff>
+      <xdr:colOff>83160</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2343,7 +2349,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="675720" cy="969840"/>
+          <a:ext cx="675000" cy="969120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2364,9 +2370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>86400</xdr:colOff>
+      <xdr:colOff>85680</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2376,7 +2382,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4713480" y="24312960"/>
-          <a:ext cx="954720" cy="645840"/>
+          <a:ext cx="954000" cy="645120"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2416,7 +2422,7 @@
               </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Cart</a:t>
+            <a:t>Cart_items</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2429,15 +2435,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>53640</xdr:colOff>
+      <xdr:colOff>52560</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2446,8 +2452,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3976200" y="23526720"/>
-          <a:ext cx="1100520" cy="786600"/>
+          <a:off x="3975840" y="23526360"/>
+          <a:ext cx="1099800" cy="785880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2497,9 +2503,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>93600</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2509,7 +2515,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1788840" y="1457280"/>
-          <a:ext cx="4816800" cy="417600"/>
+          <a:ext cx="4816080" cy="416880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2545,9 +2551,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>170640</xdr:colOff>
+      <xdr:colOff>169920</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2561,7 +2567,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="550080" y="2550240"/>
-          <a:ext cx="7338240" cy="443880"/>
+          <a:ext cx="7337520" cy="443160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2583,8 +2589,8 @@
   </sheetPr>
   <dimension ref="A1:AX160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L148" activeCellId="0" sqref="L148"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A120" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V127" activeCellId="0" sqref="V127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6438,7 +6444,9 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="B87" s="59"/>
-      <c r="C87" s="60"/>
+      <c r="C87" s="60" t="s">
+        <v>39</v>
+      </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
@@ -6489,7 +6497,9 @@
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
       <c r="B88" s="59"/>
-      <c r="C88" s="60"/>
+      <c r="C88" s="60" t="s">
+        <v>40</v>
+      </c>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
@@ -6590,7 +6600,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="B90" s="28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
@@ -6644,7 +6654,7 @@
       <c r="A91" s="17"/>
       <c r="B91" s="63"/>
       <c r="C91" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D91" s="64"/>
       <c r="E91" s="64"/>
@@ -6746,7 +6756,7 @@
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="17"/>
       <c r="B93" s="28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="61"/>
@@ -6800,7 +6810,7 @@
       <c r="A94" s="17"/>
       <c r="B94" s="63"/>
       <c r="C94" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D94" s="62"/>
       <c r="E94" s="61"/>
@@ -6893,7 +6903,7 @@
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="17"/>
       <c r="B96" s="28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C96" s="19"/>
       <c r="D96" s="64"/>
@@ -6947,7 +6957,7 @@
       <c r="A97" s="17"/>
       <c r="B97" s="28"/>
       <c r="C97" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D97" s="64"/>
       <c r="E97" s="61"/>
@@ -7050,7 +7060,7 @@
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="17"/>
       <c r="B99" s="28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C99" s="19"/>
       <c r="D99" s="64"/>
@@ -7105,7 +7115,7 @@
       <c r="A100" s="17"/>
       <c r="B100" s="28"/>
       <c r="C100" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D100" s="64"/>
       <c r="E100" s="19"/>
@@ -8377,7 +8387,7 @@
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="17"/>
       <c r="B125" s="59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
@@ -9294,7 +9304,7 @@
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
       <c r="B143" s="71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
@@ -9451,14 +9461,14 @@
       <c r="B146" s="28"/>
       <c r="C146" s="19"/>
       <c r="D146" s="72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E146" s="72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F146" s="72"/>
       <c r="G146" s="72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H146" s="72"/>
       <c r="I146" s="72"/>
@@ -9475,11 +9485,11 @@
       <c r="T146" s="72"/>
       <c r="U146" s="72"/>
       <c r="V146" s="72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W146" s="72"/>
       <c r="X146" s="73" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y146" s="73"/>
       <c r="Z146" s="73"/>
@@ -9515,18 +9525,18 @@
         <v>1</v>
       </c>
       <c r="E147" s="74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F147" s="74"/>
       <c r="G147" s="75" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H147" s="76"/>
       <c r="I147" s="76"/>
       <c r="J147" s="76"/>
       <c r="K147" s="77"/>
       <c r="L147" s="78" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M147" s="76"/>
       <c r="N147" s="76"/>
@@ -9538,7 +9548,7 @@
       <c r="T147" s="76"/>
       <c r="U147" s="79"/>
       <c r="V147" s="74" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W147" s="74"/>
       <c r="X147" s="75"/>
@@ -9576,18 +9586,18 @@
         <v>2</v>
       </c>
       <c r="E148" s="74" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F148" s="74"/>
       <c r="G148" s="75" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H148" s="76"/>
       <c r="I148" s="76"/>
       <c r="J148" s="76"/>
       <c r="K148" s="77"/>
       <c r="L148" s="78" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M148" s="76"/>
       <c r="N148" s="76"/>
@@ -9599,7 +9609,7 @@
       <c r="T148" s="76"/>
       <c r="U148" s="79"/>
       <c r="V148" s="74" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W148" s="74"/>
       <c r="X148" s="81"/>
@@ -10108,7 +10118,7 @@
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
       <c r="E158" s="24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
@@ -10486,8 +10496,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048575"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U140" activeCellId="0" sqref="U140"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D94" activeCellId="0" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10655,7 +10665,7 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
       <c r="AA3" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
@@ -10736,7 +10746,7 @@
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17"/>
       <c r="B5" s="59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AM5" s="19"/>
       <c r="AN5" s="19"/>
@@ -11209,7 +11219,7 @@
       </c>
       <c r="AS41" s="6"/>
       <c r="AT41" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AU41" s="8"/>
       <c r="AV41" s="8"/>
@@ -11300,7 +11310,7 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB43" s="14"/>
       <c r="AC43" s="14"/>
@@ -11337,7 +11347,7 @@
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
       <c r="B45" s="59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -11370,7 +11380,7 @@
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
       <c r="C47" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AM47" s="19"/>
       <c r="AN47" s="19"/>
@@ -11385,10 +11395,10 @@
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="17"/>
       <c r="C48" s="72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D48" s="72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E48" s="72"/>
       <c r="F48" s="72"/>
@@ -11396,39 +11406,39 @@
       <c r="H48" s="72"/>
       <c r="I48" s="72"/>
       <c r="J48" s="104" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K48" s="104"/>
       <c r="L48" s="104"/>
       <c r="M48" s="104"/>
       <c r="N48" s="104" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O48" s="104"/>
       <c r="P48" s="104"/>
       <c r="Q48" s="72" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R48" s="72"/>
       <c r="S48" s="72"/>
       <c r="T48" s="72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U48" s="72"/>
       <c r="V48" s="73" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="W48" s="73"/>
       <c r="X48" s="73"/>
       <c r="Y48" s="73"/>
       <c r="Z48" s="105" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AA48" s="105"/>
       <c r="AB48" s="105"/>
       <c r="AC48" s="105"/>
       <c r="AD48" s="73" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AE48" s="73"/>
       <c r="AF48" s="73"/>
@@ -11458,7 +11468,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="109" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E49" s="110"/>
       <c r="F49" s="110"/>
@@ -11466,7 +11476,7 @@
       <c r="H49" s="111"/>
       <c r="I49" s="112"/>
       <c r="J49" s="113" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
@@ -11476,15 +11486,15 @@
       <c r="P49" s="111"/>
       <c r="Q49" s="113"/>
       <c r="R49" s="111" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S49" s="114"/>
       <c r="T49" s="115" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U49" s="115"/>
       <c r="V49" s="116" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W49" s="117"/>
       <c r="X49" s="117"/>
@@ -11494,7 +11504,7 @@
       <c r="AB49" s="110"/>
       <c r="AC49" s="110"/>
       <c r="AD49" s="109" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE49" s="110"/>
       <c r="AF49" s="110"/>
@@ -11724,7 +11734,7 @@
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="17"/>
       <c r="C54" s="19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
@@ -11775,10 +11785,10 @@
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="17"/>
       <c r="C55" s="133" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D55" s="72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E55" s="72"/>
       <c r="F55" s="72"/>
@@ -11790,7 +11800,7 @@
       <c r="L55" s="72"/>
       <c r="M55" s="72"/>
       <c r="N55" s="134" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O55" s="134"/>
       <c r="P55" s="134"/>
@@ -11802,7 +11812,7 @@
       <c r="V55" s="134"/>
       <c r="W55" s="134"/>
       <c r="X55" s="73" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y55" s="73"/>
       <c r="Z55" s="73"/>
@@ -11836,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="136" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E56" s="97"/>
       <c r="F56" s="97"/>
@@ -11848,7 +11858,7 @@
       <c r="L56" s="97"/>
       <c r="M56" s="137"/>
       <c r="N56" s="138" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O56" s="139"/>
       <c r="P56" s="139"/>
@@ -11892,7 +11902,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="142" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E57" s="143"/>
       <c r="F57" s="143"/>
@@ -11904,7 +11914,7 @@
       <c r="L57" s="143"/>
       <c r="M57" s="144"/>
       <c r="N57" s="138" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O57" s="139"/>
       <c r="P57" s="139"/>
@@ -12046,7 +12056,7 @@
       <c r="A60" s="17"/>
       <c r="B60" s="28"/>
       <c r="C60" s="19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
@@ -12098,10 +12108,10 @@
       <c r="A61" s="17"/>
       <c r="B61" s="28"/>
       <c r="C61" s="133" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D61" s="72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E61" s="72"/>
       <c r="F61" s="72"/>
@@ -12113,7 +12123,7 @@
       <c r="L61" s="72"/>
       <c r="M61" s="72"/>
       <c r="N61" s="134" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O61" s="134"/>
       <c r="P61" s="134"/>
@@ -12125,7 +12135,7 @@
       <c r="V61" s="134"/>
       <c r="W61" s="134"/>
       <c r="X61" s="73" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y61" s="73"/>
       <c r="Z61" s="73"/>
@@ -13160,7 +13170,7 @@
       </c>
       <c r="AN81" s="6"/>
       <c r="AO81" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AP81" s="7"/>
       <c r="AQ81" s="7"/>
@@ -13260,7 +13270,7 @@
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
       <c r="AA83" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB83" s="14"/>
       <c r="AC83" s="14"/>
@@ -13306,7 +13316,7 @@
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="17"/>
       <c r="B85" s="59" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
@@ -13339,7 +13349,7 @@
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
       <c r="C86" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -13372,7 +13382,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="D87" s="19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
@@ -13434,7 +13444,7 @@
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="17"/>
       <c r="C89" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
@@ -13467,7 +13477,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="D90" s="19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
@@ -13529,7 +13539,7 @@
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="17"/>
       <c r="C92" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
@@ -13562,7 +13572,7 @@
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="17"/>
       <c r="D93" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
@@ -14563,7 +14573,7 @@
       <c r="Y123" s="13"/>
       <c r="Z123" s="13"/>
       <c r="AA123" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB123" s="14"/>
       <c r="AC123" s="14"/>
@@ -14625,7 +14635,7 @@
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="17"/>
       <c r="B125" s="59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D125" s="19"/>
       <c r="E125" s="19"/>
@@ -14658,7 +14668,7 @@
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
       <c r="C126" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
@@ -14691,7 +14701,7 @@
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="17"/>
       <c r="D127" s="19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E127" s="19"/>
       <c r="F127" s="19"/>
@@ -14753,7 +14763,7 @@
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="17"/>
       <c r="C129" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AM129" s="19"/>
       <c r="AN129" s="19"/>
@@ -14768,10 +14778,10 @@
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="17"/>
       <c r="C130" s="72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D130" s="72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E130" s="72"/>
       <c r="F130" s="72"/>
@@ -14779,39 +14789,39 @@
       <c r="H130" s="72"/>
       <c r="I130" s="72"/>
       <c r="J130" s="104" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K130" s="104"/>
       <c r="L130" s="104"/>
       <c r="M130" s="104"/>
       <c r="N130" s="104" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O130" s="104"/>
       <c r="P130" s="104"/>
       <c r="Q130" s="72" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R130" s="72"/>
       <c r="S130" s="72"/>
       <c r="T130" s="72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U130" s="72"/>
       <c r="V130" s="73" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="W130" s="73"/>
       <c r="X130" s="73"/>
       <c r="Y130" s="73"/>
       <c r="Z130" s="105" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AA130" s="105"/>
       <c r="AB130" s="105"/>
       <c r="AC130" s="105"/>
       <c r="AD130" s="73" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AE130" s="73"/>
       <c r="AF130" s="73"/>
@@ -14839,7 +14849,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="109" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E131" s="110"/>
       <c r="F131" s="110"/>
@@ -14847,7 +14857,7 @@
       <c r="H131" s="111"/>
       <c r="I131" s="112"/>
       <c r="J131" s="113" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K131" s="111"/>
       <c r="L131" s="111"/>
@@ -14857,15 +14867,15 @@
       <c r="P131" s="111"/>
       <c r="Q131" s="113"/>
       <c r="R131" s="111" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S131" s="114"/>
       <c r="T131" s="115" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U131" s="115"/>
       <c r="V131" s="116" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W131" s="117"/>
       <c r="X131" s="117"/>
@@ -14875,7 +14885,7 @@
       <c r="AB131" s="110"/>
       <c r="AC131" s="110"/>
       <c r="AD131" s="109" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE131" s="110"/>
       <c r="AF131" s="110"/>
@@ -15054,7 +15064,7 @@
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="17"/>
       <c r="C136" s="19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D136" s="19"/>
       <c r="E136" s="19"/>
@@ -15105,10 +15115,10 @@
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="17"/>
       <c r="C137" s="133" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D137" s="72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E137" s="72"/>
       <c r="F137" s="72"/>
@@ -15120,7 +15130,7 @@
       <c r="L137" s="72"/>
       <c r="M137" s="72"/>
       <c r="N137" s="134" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O137" s="134"/>
       <c r="P137" s="134"/>
@@ -15132,7 +15142,7 @@
       <c r="V137" s="134"/>
       <c r="W137" s="134"/>
       <c r="X137" s="73" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y137" s="73"/>
       <c r="Z137" s="73"/>
@@ -15166,7 +15176,7 @@
         <v>1</v>
       </c>
       <c r="D138" s="136" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E138" s="97"/>
       <c r="F138" s="97"/>
@@ -15178,7 +15188,7 @@
       <c r="L138" s="97"/>
       <c r="M138" s="137"/>
       <c r="N138" s="138" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O138" s="139"/>
       <c r="P138" s="139"/>
@@ -15222,7 +15232,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="142" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E139" s="143"/>
       <c r="F139" s="143"/>
@@ -15234,7 +15244,7 @@
       <c r="L139" s="143"/>
       <c r="M139" s="144"/>
       <c r="N139" s="138" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O139" s="139"/>
       <c r="P139" s="139"/>
@@ -15377,7 +15387,7 @@
       <c r="A142" s="0"/>
       <c r="B142" s="0"/>
       <c r="C142" s="19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D142" s="19"/>
       <c r="E142" s="19"/>
@@ -15429,10 +15439,10 @@
       <c r="A143" s="0"/>
       <c r="B143" s="0"/>
       <c r="C143" s="133" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D143" s="72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E143" s="72"/>
       <c r="F143" s="72"/>
@@ -15444,7 +15454,7 @@
       <c r="L143" s="72"/>
       <c r="M143" s="72"/>
       <c r="N143" s="134" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O143" s="134"/>
       <c r="P143" s="134"/>
@@ -15456,7 +15466,7 @@
       <c r="V143" s="134"/>
       <c r="W143" s="134"/>
       <c r="X143" s="73" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y143" s="73"/>
       <c r="Z143" s="73"/>
@@ -15808,7 +15818,7 @@
       <c r="A150" s="0"/>
       <c r="B150" s="0"/>
       <c r="C150" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D150" s="19"/>
       <c r="E150" s="132"/>
@@ -15917,7 +15927,7 @@
       <c r="A152" s="0"/>
       <c r="B152" s="0"/>
       <c r="C152" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D152" s="19"/>
       <c r="E152" s="132"/>
@@ -19118,7 +19128,7 @@
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="17"/>
       <c r="D213" s="160" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L213" s="24"/>
       <c r="M213" s="24"/>
